--- a/Lab01/CheckListsAll/Lab01_ReviewReport.xlsx
+++ b/Lab01/CheckListsAll/Lab01_ReviewReport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\An3_sem2\VVSS\Mai_Dezbatem_Lab_VVSS\Lab01\CheckListsAll\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -116,19 +121,117 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lipseste descrierea interfetei </t>
+  </si>
+  <si>
+    <t>lipeste pretul total sigestionarea comenzilor</t>
+  </si>
+  <si>
+    <t>cerinta</t>
+  </si>
+  <si>
+    <t>lipseste vizualizarea comenzilor de catre maestru pizzar</t>
+  </si>
+  <si>
+    <t>terminarea comenzii</t>
+  </si>
+  <si>
+    <t>lipseste mediul de rulare al aplicatiei</t>
+  </si>
+  <si>
+    <t>functionalitatile nu reflecta cerintele clientului</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>nu este explicata starea initiala a aplicatiei</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>aplicatia nu este explicata in detaliu</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>Lipseste entitatea "Order"</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>Nu prezinta tratarea erorilor</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>Denumirile nu sunt sugestive</t>
+  </si>
+  <si>
+    <t>Vlasie Daniel</t>
+  </si>
+  <si>
+    <t>Tatoiu Christian</t>
+  </si>
+  <si>
+    <t>Tarnu Cristian</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>Denumiri nesugestive</t>
+  </si>
+  <si>
+    <t>MenuDataModel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,78 +396,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,6 +479,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,7 +530,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +565,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,40 +779,40 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.77734375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.89453125" style="6"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -713,57 +821,63 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="25"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -777,78 +891,122 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -857,7 +1015,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -866,7 +1024,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -875,7 +1033,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -884,7 +1042,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -893,7 +1051,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -902,7 +1060,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -911,7 +1069,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -920,10 +1078,10 @@
       <c r="D25" s="3"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
@@ -951,39 +1109,39 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="22.05078125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="22" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -992,57 +1150,63 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1056,33 +1220,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1091,7 +1267,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1100,7 +1276,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1109,7 +1285,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1118,7 +1294,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1127,7 +1303,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1136,7 +1312,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1145,7 +1321,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1154,7 +1330,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1163,7 +1339,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1172,7 +1348,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1181,7 +1357,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1190,7 +1366,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1199,7 +1375,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1208,10 +1384,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
@@ -1239,40 +1415,40 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1281,57 +1457,63 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1345,15 +1527,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1362,7 +1550,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1371,7 +1559,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1380,7 +1568,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1389,7 +1577,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1398,7 +1586,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1407,7 +1595,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1416,7 +1604,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1425,7 +1613,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1434,7 +1622,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1443,7 +1631,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1452,7 +1640,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1461,7 +1649,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1470,7 +1658,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1479,7 +1667,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1488,7 +1676,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1497,7 +1685,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1506,7 +1694,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1515,7 +1703,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1524,7 +1712,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1533,10 +1721,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
@@ -1564,41 +1752,41 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="24" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1607,46 +1795,52 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1672,7 +1866,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1682,7 +1876,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1692,7 +1886,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1702,7 +1896,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1712,7 +1906,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1722,7 +1916,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1732,7 +1926,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1742,7 +1936,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1752,7 +1946,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1762,7 +1956,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1772,7 +1966,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1782,7 +1976,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1792,7 +1986,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1802,7 +1996,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1812,7 +2006,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1822,7 +2016,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1832,7 +2026,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1842,7 +2036,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1852,7 +2046,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1862,7 +2056,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1872,15 +2066,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="33" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/Lab01/CheckListsAll/Lab01_ReviewReport.xlsx
+++ b/Lab01/CheckListsAll/Lab01_ReviewReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -186,9 +186,6 @@
     <t>A07</t>
   </si>
   <si>
-    <t>Denumirile nu sunt sugestive</t>
-  </si>
-  <si>
     <t>Vlasie Daniel</t>
   </si>
   <si>
@@ -198,13 +195,37 @@
     <t>Tarnu Cristian</t>
   </si>
   <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>Denumiri nesugestive</t>
-  </si>
-  <si>
     <t>MenuDataModel</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>Lipsea paradigma Observer</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>Lipsa sistem de diferentiere a starilor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denumirile nu sunt sugestive(MenuDataModel, </t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>Butoane hardcodate(transformate in lista dinamica)</t>
+  </si>
+  <si>
+    <t>Nu exista descriere</t>
+  </si>
+  <si>
+    <t>Prea multa logica in OrderGUIController (totalAmount)</t>
+  </si>
+  <si>
+    <t>Denumiri nesugestive variabile</t>
   </si>
 </sst>
 </file>
@@ -427,6 +448,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -469,7 +491,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,19 +821,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -826,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -834,15 +855,15 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -850,15 +871,15 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>57</v>
+      <c r="I5" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -867,15 +888,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1109,8 +1130,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I5"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,7 +1139,7 @@
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
     <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" style="6" customWidth="1"/>
     <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="6"/>
@@ -1129,19 +1150,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1155,7 +1176,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -1163,15 +1184,15 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -1179,15 +1200,15 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>57</v>
+      <c r="I5" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -1196,15 +1217,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1255,7 +1276,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1263,36 +1284,50 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
@@ -1301,7 +1336,9 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
@@ -1415,8 +1452,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,19 +1473,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1462,7 +1499,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -1470,15 +1507,15 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -1486,15 +1523,15 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>57</v>
+      <c r="I5" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -1503,15 +1540,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1531,14 +1568,12 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1774,19 +1809,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1800,7 +1835,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -1808,13 +1843,13 @@
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -1822,13 +1857,13 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>57</v>
+      <c r="I5" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -1837,8 +1872,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -2070,11 +2105,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/Lab01/CheckListsAll/Lab01_ReviewReport.xlsx
+++ b/Lab01/CheckListsAll/Lab01_ReviewReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\An3_sem2\VVSS\Mai_Dezbatem_Lab_VVSS\Lab01\CheckListsAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Sem6\VVSS\Mai_Dezbatem_Lab_VVSS\Lab01\CheckListsAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4248169-2CC6-4AFF-9127-146798DF1AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="6495" yWindow="780" windowWidth="21600" windowHeight="13620" tabRatio="650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -17,12 +18,12 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -226,12 +227,93 @@
   </si>
   <si>
     <t>Denumiri nesugestive variabile</t>
+  </si>
+  <si>
+    <t>MenuRepository.java line 25</t>
+  </si>
+  <si>
+    <t>Resources should be closed</t>
+  </si>
+  <si>
+    <t>No try with resources</t>
+  </si>
+  <si>
+    <t>In try with resources for BufferedReader</t>
+  </si>
+  <si>
+    <t>MenuRepository.java line 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant naming convention </t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>FILENAME</t>
+  </si>
+  <si>
+    <t>Empty arrays instead of null</t>
+  </si>
+  <si>
+    <t>PaymentRepository.java line 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return new ArrayList&lt;&gt;(); </t>
+  </si>
+  <si>
+    <t>return null;</t>
+  </si>
+  <si>
+    <t>PaymentRepository.java line 26</t>
+  </si>
+  <si>
+    <t>Methods should not be empty</t>
+  </si>
+  <si>
+    <t>PaymentRepository.java line 17</t>
+  </si>
+  <si>
+    <t>Empty constructor</t>
+  </si>
+  <si>
+    <t>Removed empty constructor</t>
+  </si>
+  <si>
+    <t>isPresent() for optional value</t>
+  </si>
+  <si>
+    <t>PaymentAlert.java line 48</t>
+  </si>
+  <si>
+    <t>no check</t>
+  </si>
+  <si>
+    <t>if(!result.isPresent()){ return false;}</t>
+  </si>
+  <si>
+    <t>Two if branches with same implementation</t>
+  </si>
+  <si>
+    <t>PaymentAlert.java line 61</t>
+  </si>
+  <si>
+    <t>Merged branches</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>PaymentAlert</t>
+  </si>
+  <si>
+    <t>Exista doua ramuri ale aceluiasi if cu aceeasi implementare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,6 +666,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -619,6 +718,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -794,7 +910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -804,19 +920,19 @@
       <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="45.77734375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -827,7 +943,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
@@ -842,7 +958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
@@ -851,7 +967,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
@@ -867,7 +983,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
@@ -883,7 +999,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -891,14 +1007,14 @@
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -912,7 +1028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -926,7 +1042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -941,7 +1057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -956,7 +1072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -971,7 +1087,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -984,7 +1100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -997,7 +1113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1012,7 +1128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1027,7 +1143,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1036,7 +1152,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1045,7 +1161,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1054,7 +1170,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1063,7 +1179,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1072,7 +1188,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1081,7 +1197,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1090,7 +1206,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1099,10 +1215,10 @@
       <c r="D25" s="3"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
@@ -1124,7 +1240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1134,18 +1250,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="58.6640625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="58.7109375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1156,7 +1272,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
@@ -1171,7 +1287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1180,7 +1296,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1312,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1212,7 +1328,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1220,14 +1336,14 @@
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1253,7 +1369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1266,7 +1382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1279,7 +1395,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1292,7 +1408,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1305,7 +1421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1318,7 +1434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1329,7 +1445,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1340,7 +1456,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1349,7 +1465,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1358,7 +1474,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1367,7 +1483,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1376,7 +1492,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1385,7 +1501,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1394,7 +1510,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1403,7 +1519,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1412,7 +1528,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1421,10 +1537,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
@@ -1446,29 +1562,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1479,7 +1595,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
@@ -1494,7 +1610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1503,7 +1619,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1635,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1535,7 +1651,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1543,14 +1659,14 @@
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1564,7 +1680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1576,16 +1692,22 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1594,7 +1716,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1603,7 +1725,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1612,7 +1734,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1621,7 +1743,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1630,7 +1752,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1639,7 +1761,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1648,7 +1770,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1657,7 +1779,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1666,7 +1788,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1675,7 +1797,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1684,7 +1806,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1693,7 +1815,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1702,7 +1824,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1711,7 +1833,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1720,7 +1842,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1729,7 +1851,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1738,7 +1860,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1747,7 +1869,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1756,10 +1878,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
@@ -1781,30 +1903,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41" style="6" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1815,7 +1937,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
@@ -1830,7 +1952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1839,7 +1961,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
@@ -1853,7 +1975,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1867,7 +1989,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
@@ -1875,7 +1997,7 @@
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1892,76 +2014,132 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1971,7 +2149,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1981,7 +2159,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1991,7 +2169,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2001,7 +2179,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2011,7 +2189,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2021,7 +2199,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2031,7 +2209,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2041,7 +2219,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2051,7 +2229,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2061,7 +2239,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2071,7 +2249,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2081,7 +2259,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2091,7 +2269,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2101,10 +2279,10 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" s="35" t="s">
         <v>32</v>
       </c>
